--- a/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45120</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45126</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45120</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45126</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45120</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45126</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45120</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45126</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45120</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45126</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45120</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45126</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45120</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45126</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45120</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45126</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45120</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45126</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45120</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45126</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45120</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45126</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45120</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45126</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45120</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45126</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_ASELE/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45120</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45126</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
